--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2672975.144124097</v>
+        <v>2671087.562607693</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>107.890554826045</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.90300753118365</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>56.72699744179295</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>183.8819774006277</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>103.7979706824269</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>52.38121412114366</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>148.3681250208872</v>
+        <v>120.5234819888323</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>230.8865837051444</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498002</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>91.31325939119803</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.1120900633767</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>40.85620924491775</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664924</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>161.6877691571403</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>108.6200406500437</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>220.7712158510646</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>238.0131998337529</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>11.34239988529898</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>48.84922009325294</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>80.03399750504533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>11.50293589907194</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>73.87710268090358</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>42.76371979441394</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523585</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337377</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2158.229459560338</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.763701299258</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146241</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146241</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146241</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>2537.273966515961</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>2163.808208254881</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.668876279069</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>288.8387344486664</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862785</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358873</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358873</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504003</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.6737565393106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>634.6737565393107</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>634.6737565393107</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>486.7606629569176</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>339.8707154590072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5230,19 +5230,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>1044.311772267568</v>
+        <v>727.6476863320731</v>
       </c>
       <c r="X13" t="n">
-        <v>816.3222213695503</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.3222213695503</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>2032.925401907737</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2312.465467126434</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2517.487947908644</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="C16" t="n">
-        <v>565.0858502436178</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="D16" t="n">
-        <v>565.0858502436178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028599</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5601,19 +5601,19 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.3642008327096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>407.4280179048027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>407.4280179048027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>407.4280179048027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>260.5380704068923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609666</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609666</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W19" t="n">
-        <v>986.0022165609666</v>
+        <v>609.3753482118776</v>
       </c>
       <c r="X19" t="n">
-        <v>758.0126656629493</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.0126656629493</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>474.7746905116409</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>721.5398184181049</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N21" t="n">
-        <v>1908.095276920732</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.6648329070714</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C22" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.9199289028915</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765188</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="V22" t="n">
-        <v>545.6648329070714</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="W22" t="n">
-        <v>545.6648329070714</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X22" t="n">
-        <v>545.6648329070714</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y22" t="n">
-        <v>545.6648329070714</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>378.1030765138935</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483982</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.3743239205531</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>542.4381409926463</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>542.4381409926463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102531</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1176.464187454171</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="V25" t="n">
-        <v>1449.573623999061</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="W25" t="n">
-        <v>1160.156453962101</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="X25" t="n">
-        <v>932.1669030640833</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y25" t="n">
-        <v>711.3743239205531</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>525.6009593486385</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C28" t="n">
-        <v>356.6647764207315</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1107.078735313012</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609657</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609657</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="W28" t="n">
-        <v>974.383089390186</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="X28" t="n">
-        <v>746.3935384921687</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.6009593486385</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,22 +6543,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.347833878255</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716569</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110227</v>
+        <v>490.7966934617683</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644865</v>
+        <v>490.7966934617683</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335214</v>
+        <v>396.4409193308032</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1198997735071</v>
+        <v>304.2886910297808</v>
       </c>
       <c r="F31" t="n">
-        <v>152.9908175569676</v>
+        <v>304.2886910297808</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>191.874234630972</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386974</v>
+        <v>902.6804289818913</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220509</v>
+        <v>730.4517433652445</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598915</v>
+        <v>565.4200295030851</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>148.5096761832838</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147082</v>
+        <v>559.3999450277965</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211724</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113634</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.603879777667</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,16 +6871,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942117</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,16 +6950,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>498.905640096559</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>745.6707680030231</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,7 +7108,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,34 +7175,34 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649692</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>806.1650729342607</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.485206214222</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.347833878255</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,43 +7631,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141292</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.14409596997061</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>283.6093329825491</v>
+        <v>358.3520020925044</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>188.88569463024</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>134.4977453535108</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>91.23759968302031</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>272.8719470256804</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9963,19 +9963,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>104.8749102765742</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.365749697064</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929755</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>9.900512684485193</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>297.2466435761025</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>213.2603911806622</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>124.3400780863224</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>283.6093329825487</v>
       </c>
       <c r="N39" t="n">
-        <v>93.8867650799254</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,22 +11142,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>274.3657496970639</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>412.6002929596425</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>360.5026862907248</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>75.18030907217955</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>7.125262335200603</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>105.5777534016514</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>4.805799306237077</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>117.0896147389934</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.7763452073246455</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>14.12444349007512</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>210.2051611730903</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>203.2884232305751</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>141.5135635533439</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>275.0200624375191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>50.75162087247681</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>48.46698622359817</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571506</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.902744876744691e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="D2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="E2" t="n">
+        <v>586543.5896065625</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="K2" t="n">
+        <v>610233.2060179042</v>
+      </c>
+      <c r="L2" t="n">
         <v>615781.3273982126</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
-      </c>
-      <c r="E2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="F2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065634</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="K2" t="n">
-        <v>610233.2060179054</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="N2" t="n">
         <v>615781.3273982125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615781.3273982125</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615781.3273982127</v>
       </c>
       <c r="O2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086698</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284553</v>
       </c>
     </row>
     <row r="4">
@@ -26421,13 +26421,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143911</v>
@@ -26436,28 +26436,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563558</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="O4" t="n">
-        <v>37464.45686275959</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,10 +26497,10 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.5881309639</v>
+        <v>-213820.5881309638</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.291083581</v>
+        <v>376147.2910835808</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835805</v>
+        <v>376147.2910835807</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048905</v>
+        <v>-45746.90156646151</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364075</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.5940364074</v>
+        <v>479413.134910435</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.5940364072</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.5940364078</v>
+        <v>479413.1349104352</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438143</v>
+        <v>302989.9157178422</v>
       </c>
       <c r="K6" t="n">
-        <v>436232.1000492013</v>
+        <v>436213.6063112659</v>
       </c>
       <c r="L6" t="n">
-        <v>470258.8579145607</v>
+        <v>470258.8579145608</v>
       </c>
       <c r="M6" t="n">
-        <v>345800.7494815903</v>
+        <v>345800.7494815902</v>
       </c>
       <c r="N6" t="n">
-        <v>480601.7647154278</v>
+        <v>480601.7647154276</v>
       </c>
       <c r="O6" t="n">
         <v>480601.7647154276</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,19 +26750,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541004</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108373</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.350413891368</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.9289726507536</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>229.5548768001848</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>32.56634295703006</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>245.4429980349861</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>94.05274852542551</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647186</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>216.9047667501203</v>
+        <v>244.7494097821752</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>55.63641463144657</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,22 +28561,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29290,10 +29290,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
-        <v>-2.384319086127909e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,16 +35735,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.1571287550447</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>594.0337100330154</v>
+        <v>668.7763791429707</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>339.4611332181792</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>416.8614475946189</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709596</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>479.9653619572051</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>438.0694836745871</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>607.5603230950769</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780496</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109124</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>51.81069163939191</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>579.6103458172107</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37318,7 +37318,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109124</v>
@@ -37385,25 +37385,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>363.8358297686015</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843354</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109073</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>594.033710033015</v>
       </c>
       <c r="N39" t="n">
-        <v>427.0813384779383</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315248</v>
@@ -37643,7 +37643,7 @@
         <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37792,7 +37792,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109124</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>523.6234546530883</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>745.7948663576555</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686866</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502436</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>693.6972596887377</v>
+        <v>641.3196830252161</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
